--- a/public/excel_templates/master_templates/item_template.xlsx
+++ b/public/excel_templates/master_templates/item_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp8.2\htdocs\MaxVita\public\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp8.2\htdocs\MaxVita\public\excel_templates\master_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2D13C97-1071-4FB3-99AC-07525869D883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7B7F68-2DF7-4F03-8AD9-3390AFA57156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{43C8DCE8-C606-4A21-9DF5-B04DE3FB5E88}"/>
+    <workbookView xWindow="6216" yWindow="3504" windowWidth="14724" windowHeight="8880" xr2:uid="{43C8DCE8-C606-4A21-9DF5-B04DE3FB5E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>in_stock</t>
   </si>
   <si>
-    <t>item_group</t>
-  </si>
-  <si>
     <t>uom</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>item_type</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,22 +467,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel_templates/master_templates/item_template.xlsx
+++ b/public/excel_templates/master_templates/item_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp8.2\htdocs\MaxVita\public\excel_templates\master_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7B7F68-2DF7-4F03-8AD9-3390AFA57156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83FBB77-3EEC-4796-874E-15738E24BA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6216" yWindow="3504" windowWidth="14724" windowHeight="8880" xr2:uid="{43C8DCE8-C606-4A21-9DF5-B04DE3FB5E88}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{43C8DCE8-C606-4A21-9DF5-B04DE3FB5E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>item_code</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>single_packet_weight</t>
   </si>
 </sst>
 </file>
@@ -439,24 +445,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1722DEA0-8BB5-4267-B088-1A0E33975CCD}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" customWidth="1"/>
     <col min="5" max="5" width="6.21875" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -473,15 +483,21 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/public/excel_templates/master_templates/item_template.xlsx
+++ b/public/excel_templates/master_templates/item_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp8.2\htdocs\MaxVita\public\excel_templates\master_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83FBB77-3EEC-4796-874E-15738E24BA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A7754A-266E-48DE-AA99-8CA081D2E5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{43C8DCE8-C606-4A21-9DF5-B04DE3FB5E88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{43C8DCE8-C606-4A21-9DF5-B04DE3FB5E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>item_code</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>single_packet_weight</t>
+  </si>
+  <si>
+    <t>location</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1722DEA0-8BB5-4267-B088-1A0E33975CCD}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,9 +467,10 @@
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -499,6 +503,9 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
